--- a/src/test/resources/Import Sample with bad format cell.xlsx
+++ b/src/test/resources/Import Sample with bad format cell.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Victor\Desktop\TIP\backend-tip\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545B2C4E-97B3-4D0F-A581-891495F2432F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F296A87F-77EA-48B4-B61B-038DE8775563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1365" windowWidth="15375" windowHeight="8325" xr2:uid="{5C8D9C40-CB1B-43C9-A79C-5280D339B0FD}"/>
+    <workbookView xWindow="2955" yWindow="2745" windowWidth="15375" windowHeight="8325" xr2:uid="{5C8D9C40-CB1B-43C9-A79C-5280D339B0FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Importar" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -92,8 +92,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -138,7 +138,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -461,7 +461,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,10 +511,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>102</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6">
@@ -543,8 +543,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -563,8 +563,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>15</v>
